--- a/doc/表定义.xlsx
+++ b/doc/表定义.xlsx
@@ -5,14 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Work\rijia\Source\master\springBootDemo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28095" windowHeight="15810"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28095" windowHeight="15810" tabRatio="903" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表模板" sheetId="1" r:id="rId1"/>
+    <sheet name="t_user" sheetId="11" r:id="rId2"/>
+    <sheet name="t_login_info" sheetId="7" r:id="rId3"/>
+    <sheet name="t_daily_paper" sheetId="3" r:id="rId4"/>
+    <sheet name="t_defect_list" sheetId="6" r:id="rId5"/>
+    <sheet name="t_defect_differentiate_type" sheetId="4" r:id="rId6"/>
+    <sheet name="t_defect_item_type" sheetId="5" r:id="rId7"/>
+    <sheet name="t_machine_type" sheetId="8" r:id="rId8"/>
+    <sheet name="t_position_type" sheetId="9" r:id="rId9"/>
+    <sheet name="t_process_lines_type" sheetId="10" r:id="rId10"/>
+    <sheet name="t_attendance_type" sheetId="2" r:id="rId11"/>
+    <sheet name="t_workbay_type" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="32">
   <si>
     <t>表信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +120,50 @@
     <t>参考列名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>t_attendance_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_daily_paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_defect_differentiate_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_defect_item_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_defect_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_login_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_machine_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_process_lines_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_workbay_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_position_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -407,23 +462,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,15 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +503,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -770,30 +825,30 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -801,189 +856,189 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
@@ -991,64 +1046,64 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -1056,64 +1111,4244 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="8" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/表定义.xlsx
+++ b/doc/表定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28095" windowHeight="15810" tabRatio="903" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="28095" windowHeight="15810" tabRatio="903" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表模板" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="33">
   <si>
     <t>表信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,12 +164,16 @@
     <t>t_position_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,6 +203,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -455,7 +467,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,25 +821,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -834,7 +852,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -842,7 +860,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -850,12 +868,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -868,307 +886,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1184,25 +1265,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1298,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -1222,7 +1306,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1230,12 +1314,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1248,307 +1332,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1564,25 +1711,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1744,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -1602,7 +1752,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1610,12 +1760,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1628,307 +1778,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1944,25 +2157,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2190,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -1982,7 +2198,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1990,12 +2206,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2008,307 +2224,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2324,25 +2603,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -2354,7 +2636,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -2362,7 +2644,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2370,12 +2652,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2388,307 +2670,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2704,25 +3049,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -2734,7 +3082,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -2742,7 +3090,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2750,12 +3098,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2768,307 +3116,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3084,25 +3495,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3528,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -3122,7 +3536,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3130,12 +3544,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3148,307 +3562,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3464,25 +3941,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3974,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -3502,7 +3982,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3510,12 +3990,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3528,307 +4008,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3844,25 +4387,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3874,7 +4420,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -3882,7 +4428,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3890,12 +4436,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3908,307 +4454,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4224,25 +4833,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -4254,7 +4866,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -4262,7 +4874,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4270,12 +4882,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -4288,307 +4900,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4604,25 +5279,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -4634,7 +5312,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -4642,7 +5320,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4650,12 +5328,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -4668,307 +5346,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4984,25 +5725,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="8" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
@@ -5014,7 +5758,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
@@ -5022,7 +5766,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5030,12 +5774,12 @@
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="6" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -5048,307 +5792,370 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="10">
+        <f t="shared" ref="B10:B22" si="0">B9+1</f>
+        <v>3</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="7" t="s">
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="10">
+        <f t="shared" ref="B28:B30" si="1">B27+1</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="10">
+        <f>B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:B38" si="2">B35+1</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/表定义.xlsx
+++ b/doc/表定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="28095" windowHeight="15810" tabRatio="903" activeTab="1"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28095" windowHeight="15810" tabRatio="903" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表模板" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="81">
   <si>
     <t>表信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是不是Null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,13 +163,168 @@
   <si>
     <t>长度</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>superior_id</t>
+  </si>
+  <si>
+    <t>不是Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_token</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>login_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>FK_user_id</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>BTREE</t>
+  </si>
+  <si>
+    <t>t_user</t>
+  </si>
+  <si>
+    <t>每天工作记录(日报)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>machine_type_id</t>
+  </si>
+  <si>
+    <t>batch_number</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>process_lines_type_id</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>batch_count</t>
+  </si>
+  <si>
+    <t>work_station</t>
+  </si>
+  <si>
+    <t>monitor_user_id</t>
+  </si>
+  <si>
+    <t>attendance_type_id</t>
+  </si>
+  <si>
+    <t>defect_id</t>
+  </si>
+  <si>
+    <t>u_time</t>
+  </si>
+  <si>
+    <t>u_user_id</t>
+  </si>
+  <si>
+    <t>IND_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_defect_id</t>
+  </si>
+  <si>
+    <t>defect_item_id</t>
+  </si>
+  <si>
+    <t>defect_differentiate_id</t>
+  </si>
+  <si>
+    <t>defect_content</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>defect_remarks</t>
+  </si>
+  <si>
+    <t>defect_cause</t>
+  </si>
+  <si>
+    <t>defect_strategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,6 +360,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -467,7 +625,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +674,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -537,8 +698,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,7 +991,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,18 +1010,18 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -864,9 +1031,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -886,17 +1053,17 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -1095,7 +1262,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1103,19 +1270,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="G25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -1174,7 +1341,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1182,19 +1349,19 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -1268,7 +1435,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,11 +1454,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>28</v>
+      <c r="D2" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1299,8 +1466,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1310,9 +1477,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1332,14 +1499,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -1541,7 +1708,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1549,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -1620,7 +1787,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -1628,16 +1795,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -1714,7 +1881,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1733,11 +1900,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>21</v>
+      <c r="D2" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1745,8 +1912,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1756,9 +1923,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1778,14 +1945,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -1987,7 +2154,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1995,16 +2162,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -2066,7 +2233,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2074,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -2160,7 +2327,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,11 +2346,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>30</v>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -2191,8 +2358,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2202,9 +2369,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2224,14 +2391,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -2433,7 +2600,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2441,16 +2608,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -2512,7 +2679,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2520,16 +2687,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -2605,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,11 +2792,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
+      <c r="D2" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -2637,8 +2804,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2815,11 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2670,14 +2839,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -2688,11 +2857,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -2701,10 +2880,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
@@ -2714,10 +2901,18 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
@@ -2727,9 +2922,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
@@ -2740,9 +2941,15 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
@@ -2879,7 +3086,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2887,16 +3094,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -2958,7 +3165,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -2966,16 +3173,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -3052,7 +3259,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3071,11 +3278,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>26</v>
+      <c r="D2" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3083,8 +3290,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3094,9 +3301,11 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3116,14 +3325,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -3134,11 +3343,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -3147,10 +3366,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
@@ -3160,10 +3387,18 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
@@ -3325,7 +3560,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3333,16 +3568,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -3352,10 +3587,18 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
@@ -3404,7 +3647,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3412,16 +3655,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -3431,10 +3674,18 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
@@ -3498,7 +3749,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,11 +3768,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>22</v>
+      <c r="D2" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3529,8 +3780,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3540,9 +3791,11 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3562,14 +3815,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -3580,11 +3833,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -3593,11 +3856,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -3606,11 +3879,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -3619,11 +3902,21 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -3632,11 +3925,21 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -3645,10 +3948,18 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
     </row>
@@ -3658,10 +3969,18 @@
         <v>7</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
@@ -3671,10 +3990,18 @@
         <v>8</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
@@ -3684,9 +4011,15 @@
         <v>9</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
@@ -3697,9 +4030,15 @@
         <v>10</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
@@ -3710,10 +4049,18 @@
         <v>11</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
     </row>
@@ -3723,9 +4070,15 @@
         <v>12</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
@@ -3736,9 +4089,15 @@
         <v>13</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
@@ -3771,7 +4130,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3779,16 +4138,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -3850,7 +4209,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3858,16 +4217,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -3944,7 +4303,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3963,11 +4322,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>25</v>
+      <c r="D2" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3975,8 +4334,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3986,9 +4345,11 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4008,14 +4369,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -4026,11 +4387,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -4039,11 +4410,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -4052,10 +4433,18 @@
         <v>3</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
@@ -4065,10 +4454,18 @@
         <v>4</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
@@ -4078,10 +4475,18 @@
         <v>5</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
     </row>
@@ -4091,9 +4496,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
@@ -4104,9 +4515,15 @@
         <v>7</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
@@ -4117,9 +4534,15 @@
         <v>8</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
@@ -4130,9 +4553,15 @@
         <v>9</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
@@ -4217,7 +4646,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4225,16 +4654,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -4296,7 +4725,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4304,16 +4733,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -4389,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4409,11 +4838,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>23</v>
+      <c r="D2" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -4421,8 +4850,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4432,9 +4861,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4454,14 +4883,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -4663,7 +5092,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4671,16 +5100,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -4742,7 +5171,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4750,16 +5179,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -4836,7 +5265,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4855,11 +5284,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>24</v>
+      <c r="D2" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -4867,8 +5296,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4878,9 +5307,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -4900,14 +5329,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -5109,7 +5538,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -5117,16 +5546,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -5188,7 +5617,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5196,16 +5625,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -5282,7 +5711,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5301,11 +5730,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>27</v>
+      <c r="D2" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -5313,8 +5742,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5324,9 +5753,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -5346,14 +5775,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -5555,7 +5984,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -5563,16 +5992,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -5634,7 +6063,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5642,16 +6071,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
@@ -5728,7 +6157,7 @@
   <dimension ref="B1:I38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5747,11 +6176,11 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
+      <c r="D2" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -5759,8 +6188,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5770,9 +6199,9 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -5792,14 +6221,14 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>32</v>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>4</v>
@@ -6001,7 +6430,7 @@
     </row>
     <row r="24" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -6009,16 +6438,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>4</v>
@@ -6080,7 +6509,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6088,16 +6517,16 @@
         <v>6</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>4</v>
